--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>玩家等级表@W-玩家表.xlsx</t>
+  </si>
+  <si>
+    <t>item.info</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>道具信息表@D-道具表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1179,6 +1188,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,27 @@
   </si>
   <si>
     <t>道具信息表@D-道具表.xlsx</t>
+  </si>
+  <si>
+    <t>chess.type</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>玩法参数表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>match.game</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>游戏表@P-匹配表.xlsx</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
 </sst>
 </file>
@@ -1067,19 +1088,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
     <col min="4" max="4" width="32.425" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
-    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="19.25" customWidth="1"/>
   </cols>
@@ -1202,6 +1225,37 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -113,7 +113,7 @@
     <t>player.level</t>
   </si>
   <si>
-    <t>player</t>
+    <t>player_level</t>
   </si>
   <si>
     <t>玩家等级表@W-玩家表.xlsx</t>
@@ -122,7 +122,7 @@
     <t>item.info</t>
   </si>
   <si>
-    <t>item</t>
+    <t>item_info</t>
   </si>
   <si>
     <t>道具信息表@D-道具表.xlsx</t>
@@ -131,16 +131,25 @@
     <t>chess.type</t>
   </si>
   <si>
-    <t>chess</t>
+    <t>chess_type</t>
   </si>
   <si>
     <t>玩法参数表@X-象棋表.xlsx</t>
   </si>
   <si>
+    <t>chess.rank</t>
+  </si>
+  <si>
+    <t>chess_rank</t>
+  </si>
+  <si>
+    <t>段位表@X-象棋表.xlsx</t>
+  </si>
+  <si>
     <t>match.game</t>
   </si>
   <si>
-    <t>match</t>
+    <t>match_game</t>
   </si>
   <si>
     <t>游戏表@P-匹配表.xlsx</t>
@@ -1088,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1239,7 +1248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1252,8 +1261,22 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
         <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>玩法参数表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>chess.param</t>
+  </si>
+  <si>
+    <t>chess_param</t>
+  </si>
+  <si>
+    <t>通用参数表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>chess.rank</t>
@@ -1097,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1248,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1261,22 +1273,39 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -110,7 +110,7 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>player.level</t>
+    <t>player.tb_player_level</t>
   </si>
   <si>
     <t>player_level</t>
@@ -119,7 +119,7 @@
     <t>玩家等级表@W-玩家表.xlsx</t>
   </si>
   <si>
-    <t>item.info</t>
+    <t>item.tb_item_info</t>
   </si>
   <si>
     <t>item_info</t>
@@ -128,7 +128,7 @@
     <t>道具信息表@D-道具表.xlsx</t>
   </si>
   <si>
-    <t>chess.type</t>
+    <t>chess.tb_chess_type</t>
   </si>
   <si>
     <t>chess_type</t>
@@ -137,7 +137,7 @@
     <t>玩法参数表@X-象棋表.xlsx</t>
   </si>
   <si>
-    <t>chess.param</t>
+    <t>chess.tb_chess_param</t>
   </si>
   <si>
     <t>chess_param</t>
@@ -149,7 +149,7 @@
     <t>one</t>
   </si>
   <si>
-    <t>chess.rank</t>
+    <t>chess.tb_chess_rank</t>
   </si>
   <si>
     <t>chess_rank</t>
@@ -158,7 +158,7 @@
     <t>段位表@X-象棋表.xlsx</t>
   </si>
   <si>
-    <t>match.game</t>
+    <t>match.tb_match_game</t>
   </si>
   <si>
     <t>match_game</t>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>email.tb_email_sys</t>
+  </si>
+  <si>
+    <t>email_sys</t>
+  </si>
+  <si>
+    <t>系统邮件表@Y-邮件表.xlsx</t>
+  </si>
+  <si>
+    <t>misc.tb_misc_param</t>
+  </si>
+  <si>
+    <t>msic_param</t>
+  </si>
+  <si>
+    <t>杂项参数表@Z-杂项表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1121,11 +1139,12 @@
     <col min="3" max="3" width="15.575" customWidth="1"/>
     <col min="4" max="4" width="32.425" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1218,7 +1237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1231,8 +1250,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1245,8 +1267,11 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1259,8 +1284,11 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1276,8 +1304,11 @@
       <c r="G7" t="s">
         <v>39</v>
       </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1290,8 +1321,11 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1306,6 +1340,46 @@
       </c>
       <c r="G9" t="s">
         <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>系统邮件表@Y-邮件表.xlsx</t>
+  </si>
+  <si>
+    <t>email.tb_email_friend</t>
+  </si>
+  <si>
+    <t>email_friend</t>
+  </si>
+  <si>
+    <t>好友邮件表@Y-邮件表.xlsx</t>
   </si>
   <si>
     <t>misc.tb_misc_param</t>
@@ -867,6 +876,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1376,10 +1392,30 @@
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/data_tables/excels/__tables__.xlsx
+++ b/data_excel/data_tables/excels/__tables__.xlsx
@@ -191,7 +191,7 @@
     <t>misc.tb_misc_param</t>
   </si>
   <si>
-    <t>msic_param</t>
+    <t>misc_param</t>
   </si>
   <si>
     <t>杂项参数表@Z-杂项表.xlsx</t>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
